--- a/biology/Zoologie/Donacia_aquatica/Donacia_aquatica.xlsx
+++ b/biology/Zoologie/Donacia_aquatica/Donacia_aquatica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Donacia aquatica est une espèce de chrysomèles de la sous-famille des Donaciinae et du genre Donacia.
 </t>
@@ -511,11 +523,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce est décrite en 1758 par le naturaliste suédois Carl von Linné. Le nom valide complet (avec auteur) de ce taxon est Donacia aquatica (Linnaeus, 1758)[1].
-L'espèce a été initialement classée dans le genre Leptura sous le protonyme Leptura aquatica Linnaeus, 1758[1].
-Donacia aquatica a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'espèce est décrite en 1758 par le naturaliste suédois Carl von Linné. Le nom valide complet (avec auteur) de ce taxon est Donacia aquatica (Linnaeus, 1758).
+L'espèce a été initialement classée dans le genre Leptura sous le protonyme Leptura aquatica Linnaeus, 1758.
+Donacia aquatica a pour synonymes :
 Donacia dentipes F., 1792
 Leptura aquatica Linnaeus, 1758</t>
         </is>
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Donacia aquatica a un corps cylindrique, trapu, glabre, avec un prothorax cuivreux et des élytres vert-doré avec une bande longitudinale pourpre caractéristique. Le prothorax est aussi long que large et nettement plus étroit que les élytres[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Donacia aquatica a un corps cylindrique, trapu, glabre, avec un prothorax cuivreux et des élytres vert-doré avec une bande longitudinale pourpre caractéristique. Le prothorax est aussi long que large et nettement plus étroit que les élytres.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Donacia aquatica peut se rencontrer dans toute l'Europe et jusqu'en Russie, dans les zones humides et jusqu'à 2 000 m[2]. L'espèce est surtout visible d'avril à août[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Donacia aquatica peut se rencontrer dans toute l'Europe et jusqu'en Russie, dans les zones humides et jusqu'à 2 000 m. L'espèce est surtout visible d'avril à août.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Donacia aquatica est une espèce phytophage dont les larves se nourrissent Sparganium ainsi que d’autres plantes aquatiques (comme les adultes)[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Donacia aquatica est une espèce phytophage dont les larves se nourrissent Sparganium ainsi que d’autres plantes aquatiques (comme les adultes).
 </t>
         </is>
       </c>
